--- a/2010-2014.xlsx
+++ b/2010-2014.xlsx
@@ -49,6 +49,9 @@
     <t>PoliticalStability</t>
   </si>
   <si>
+    <t>PolStabInd</t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -260,9 +263,6 @@
   </si>
   <si>
     <t>Norway</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
   </si>
   <si>
     <t>Panama</t>
@@ -722,15 +722,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -765,10 +765,13 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>9788.448496822894</v>
@@ -803,10 +806,13 @@
       <c r="L2">
         <v>-0.007915578782558441</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>13075.71914240405</v>
@@ -841,10 +847,13 @@
       <c r="L3">
         <v>-1.267575645446777</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>19961.61150061416</v>
@@ -879,10 +888,13 @@
       <c r="L4">
         <v>0.0474857465364039</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>43266.05789946315</v>
@@ -917,10 +929,13 @@
       <c r="L5">
         <v>0.9771664261817932</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>45680.6841013871</v>
@@ -955,10 +970,13 @@
       <c r="L6">
         <v>1.264307546615601</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>2654.153272598043</v>
@@ -993,10 +1011,13 @@
       <c r="L7">
         <v>-1.346607482433319</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>15296.75949586519</v>
@@ -1031,10 +1052,13 @@
       <c r="L8">
         <v>1.207516288757324</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>42532.93032093921</v>
@@ -1069,10 +1093,13 @@
       <c r="L9">
         <v>0.8660266995429993</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>7919.057514729796</v>
@@ -1107,10 +1134,13 @@
       <c r="L10">
         <v>0.1254732996225357</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>1790.587797111585</v>
@@ -1145,10 +1175,13 @@
       <c r="L11">
         <v>0.25446264334023</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>5724.236807379741</v>
@@ -1183,10 +1216,13 @@
       <c r="L12">
         <v>-0.3904614686965943</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>14622.16848810497</v>
@@ -1221,10 +1257,13 @@
       <c r="L13">
         <v>-0.08039626013487577</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>16327.93030653902</v>
@@ -1259,10 +1298,13 @@
       <c r="L14">
         <v>0.2581853285431862</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>2749.096406720949</v>
@@ -1297,10 +1339,13 @@
       <c r="L15">
         <v>-0.2044485297054052</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>2543.50255342708</v>
@@ -1335,10 +1380,13 @@
       <c r="L16">
         <v>-0.7157333016395568</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>41462.46039669668</v>
@@ -1373,10 +1421,13 @@
       <c r="L17">
         <v>1.07268716096878</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>20721.37262505164</v>
@@ -1411,10 +1462,13 @@
       <c r="L18">
         <v>0.4549038887023926</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>10950.33958244905</v>
@@ -1449,10 +1503,13 @@
       <c r="L19">
         <v>-0.5728543043136597</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>11787.03480054302</v>
@@ -1487,10 +1544,13 @@
       <c r="L20">
         <v>-1.326043343544006</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>896.0521321873277</v>
@@ -1525,10 +1585,13 @@
       <c r="L21">
         <v>-2.17114725112915</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>13393.1892432299</v>
@@ -1563,10 +1626,13 @@
       <c r="L22">
         <v>0.6187103867530823</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23">
         <v>2981.61456401282</v>
@@ -1601,10 +1667,13 @@
       <c r="L23">
         <v>-1.267809557914734</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>31640.02619515982</v>
@@ -1639,10 +1708,13 @@
       <c r="L24">
         <v>0.5621569216251373</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>29677.09474696192</v>
@@ -1677,10 +1749,13 @@
       <c r="L25">
         <v>1.04544529914856</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>43602.87344773604</v>
@@ -1715,10 +1790,13 @@
       <c r="L26">
         <v>0.9934355854988098</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>11694.97332023706</v>
@@ -1753,10 +1831,13 @@
       <c r="L27">
         <v>0.1120588223042432</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>10134.12230074811</v>
@@ -1791,10 +1872,13 @@
       <c r="L28">
         <v>-0.4081456769257784</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>9662.271903353847</v>
@@ -1829,10 +1913,13 @@
       <c r="L29">
         <v>-1.408362507820129</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>7364.301046361556</v>
@@ -1867,10 +1954,13 @@
       <c r="L30">
         <v>0.06923569738864899</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>7442.38690267666</v>
@@ -1905,10 +1995,13 @@
       <c r="L31">
         <v>0.03444927260279655</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>40352.54550003375</v>
@@ -1943,10 +2036,13 @@
       <c r="L32">
         <v>1.377042555809021</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>38216.48437211901</v>
@@ -1981,10 +2077,13 @@
       <c r="L33">
         <v>0.5176669061183929</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>1568.091343104197</v>
@@ -2019,10 +2118,13 @@
       <c r="L34">
         <v>-0.0271339162660297</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>43520.9901226458</v>
@@ -2057,10 +2159,13 @@
       <c r="L35">
         <v>0.8535689115524292</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>3445.03816808592</v>
@@ -2095,10 +2200,13 @@
       <c r="L36">
         <v>0.0555396981537342</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>26636.9995501242</v>
@@ -2133,10 +2241,13 @@
       <c r="L37">
         <v>-0.1509876877069473</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38">
         <v>6579.933466140469</v>
@@ -2171,10 +2282,13 @@
       <c r="L38">
         <v>-0.7121211647987366</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>1513.867631254562</v>
@@ -2209,10 +2323,13 @@
       <c r="L39">
         <v>-0.7986436605453491</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>4301.120217478596</v>
@@ -2247,10 +2364,13 @@
       <c r="L40">
         <v>-0.4420312225818634</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>23882.35340602421</v>
@@ -2285,10 +2405,13 @@
       <c r="L41">
         <v>0.7142767071723938</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>40276.97003526426</v>
@@ -2323,10 +2446,13 @@
       <c r="L42">
         <v>1.209080743789673</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43">
         <v>4741.722959399514</v>
@@ -2361,10 +2487,13 @@
       <c r="L43">
         <v>-1.224235165119171</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44">
         <v>8928.405861936157</v>
@@ -2399,10 +2528,13 @@
       <c r="L44">
         <v>-0.6306763648986816</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>16501.33013983339</v>
@@ -2437,10 +2569,13 @@
       <c r="L45">
         <v>-1.300191986560822</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>12043.7926198329</v>
@@ -2475,10 +2610,13 @@
       <c r="L46">
         <v>-2.102405834197998</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47">
         <v>45959.59080131475</v>
@@ -2513,10 +2651,13 @@
       <c r="L47">
         <v>0.9728607654571533</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48">
         <v>35902.9841768618</v>
@@ -2551,10 +2692,13 @@
       <c r="L48">
         <v>0.4874026417732239</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>7481.496904073356</v>
@@ -2589,10 +2733,13 @@
       <c r="L49">
         <v>-0.03302995711565018</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50">
         <v>35017.30585093758</v>
@@ -2627,10 +2774,13 @@
       <c r="L50">
         <v>0.9621254563331604</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>10281.54654854449</v>
@@ -2665,10 +2815,13 @@
       <c r="L51">
         <v>-0.4992746412754059</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52">
         <v>2623.202570287522</v>
@@ -2703,10 +2856,13 @@
       <c r="L52">
         <v>-1.236586737632752</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53">
         <v>70464.74793453228</v>
@@ -2741,10 +2897,13 @@
       <c r="L53">
         <v>0.2563519775867462</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54">
         <v>2304.775189274095</v>
@@ -2779,10 +2938,13 @@
       <c r="L54">
         <v>0.2240355014801025</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55">
         <v>765.6585093919155</v>
@@ -2817,10 +2979,13 @@
       <c r="L55">
         <v>-0.4942657470703125</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56">
         <v>90497.03634185539</v>
@@ -2855,10 +3020,13 @@
       <c r="L56">
         <v>1.364827227592468</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57">
         <v>998.1515710711028</v>
@@ -2893,10 +3061,13 @@
       <c r="L57">
         <v>-0.03128394414670765</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58">
         <v>21638.53335851311</v>
@@ -2931,10 +3102,13 @@
       <c r="L58">
         <v>0.1067920478992164</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59">
         <v>1440.493902966103</v>
@@ -2969,10 +3143,13 @@
       <c r="L59">
         <v>-1.272351714968681</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B60">
         <v>30214.1931336759</v>
@@ -3007,10 +3184,13 @@
       <c r="L60">
         <v>1.110144591331482</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61">
         <v>16600.86086627606</v>
@@ -3045,10 +3225,13 @@
       <c r="L61">
         <v>0.8341676592826843</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B62">
         <v>15416.76120761246</v>
@@ -3083,10 +3266,13 @@
       <c r="L62">
         <v>-0.724965763092041</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63">
         <v>6827.001215666799</v>
@@ -3121,10 +3307,13 @@
       <c r="L63">
         <v>-0.437002420425415</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64">
         <v>1009.336648120506</v>
@@ -3159,10 +3348,13 @@
       <c r="L64">
         <v>0.1107989251613617</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65">
         <v>4423.715712029465</v>
@@ -3197,10 +3389,13 @@
       <c r="L65">
         <v>-1.113730895519257</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66">
         <v>2006.964010632949</v>
@@ -3235,10 +3430,13 @@
       <c r="L66">
         <v>-1.24707852602005</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B67">
         <v>46332.36124515514</v>
@@ -3273,10 +3471,13 @@
       <c r="L67">
         <v>1.086155271530151</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68">
         <v>32908.49133258502</v>
@@ -3311,10 +3512,13 @@
       <c r="L68">
         <v>1.379287910461426</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69">
         <v>4166.756268428204</v>
@@ -3349,10 +3553,13 @@
       <c r="L69">
         <v>-0.2816437236964703</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B70">
         <v>813.9070400138709</v>
@@ -3387,10 +3594,13 @@
       <c r="L70">
         <v>-1.136903965473175</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B71">
         <v>62438.56206737715</v>
@@ -3425,1335 +3635,1402 @@
       <c r="L71">
         <v>1.2939617395401</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B72">
-        <v>4377.91266375339</v>
+        <v>17651.58623856027</v>
       </c>
       <c r="C72">
-        <v>0.02131884376315756</v>
+        <v>0.0167436967439142</v>
       </c>
       <c r="D72">
-        <v>0.1038292452692986</v>
+        <v>0.3421227097511291</v>
       </c>
       <c r="E72">
-        <v>0.1186554878950119</v>
+        <v>0.1150003224611282</v>
       </c>
       <c r="F72">
-        <v>0.3802273326507546</v>
+        <v>0.6170406357332625</v>
       </c>
       <c r="G72">
-        <v>0.0373173714687897</v>
+        <v>0.07232491426913752</v>
       </c>
       <c r="H72">
-        <v>90.90000000000001</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="I72">
-        <v>33.01</v>
+        <v>65.77</v>
       </c>
       <c r="J72">
-        <v>5.832146167755127</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>-0.7816994428634644</v>
+        <v>0.2117584779858589</v>
       </c>
       <c r="L72">
-        <v>-2.633510684967041</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>-0.05119049325585365</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73">
-        <v>17651.58623856027</v>
+        <v>7606.381621825654</v>
       </c>
       <c r="C73">
-        <v>0.0167436967439142</v>
+        <v>0.01349138861360637</v>
       </c>
       <c r="D73">
-        <v>0.3421227097511291</v>
+        <v>0.1459914326667786</v>
       </c>
       <c r="E73">
-        <v>0.1150003224611282</v>
+        <v>0.1052968367934227</v>
       </c>
       <c r="F73">
-        <v>0.6170406357332625</v>
+        <v>0.5872629178908854</v>
       </c>
       <c r="G73">
-        <v>0.07232491426913752</v>
+        <v>0.06996243404834286</v>
       </c>
       <c r="H73">
-        <v>96.34999999999999</v>
+        <v>92.36</v>
       </c>
       <c r="I73">
-        <v>65.77</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0.2117584779858589</v>
+        <v>-0.8915361523628235</v>
       </c>
       <c r="L73">
-        <v>-0.05119049325585365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>-0.6447700127959252</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B74">
-        <v>7606.381621825654</v>
+        <v>10494.82371560991</v>
       </c>
       <c r="C74">
-        <v>0.01349138861360637</v>
+        <v>0.01324110588569529</v>
       </c>
       <c r="D74">
-        <v>0.1459914326667786</v>
+        <v>0.2283913999795914</v>
       </c>
       <c r="E74">
-        <v>0.1052968367934227</v>
+        <v>0.1215301275253296</v>
       </c>
       <c r="F74">
-        <v>0.5872629178908854</v>
+        <v>0.6579287990856948</v>
       </c>
       <c r="G74">
-        <v>0.06996243404834286</v>
+        <v>0.05232604352813182</v>
       </c>
       <c r="H74">
-        <v>92.36</v>
+        <v>100</v>
       </c>
       <c r="I74">
-        <v>67.31999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>7.21808910369873</v>
       </c>
       <c r="K74">
-        <v>-0.8915361523628235</v>
+        <v>-0.1749648451805115</v>
       </c>
       <c r="L74">
-        <v>-0.6447700127959252</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>-0.8048853039741516</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B75">
-        <v>10494.82371560991</v>
+        <v>6056.557802322526</v>
       </c>
       <c r="C75">
-        <v>0.01324110588569529</v>
+        <v>0.01585064494418988</v>
       </c>
       <c r="D75">
-        <v>0.2283913999795914</v>
+        <v>0.1973685532808304</v>
       </c>
       <c r="E75">
-        <v>0.1215301275253296</v>
+        <v>0.09281492084264756</v>
       </c>
       <c r="F75">
-        <v>0.6579287990856948</v>
+        <v>0.4198812730181267</v>
       </c>
       <c r="G75">
-        <v>0.05232604352813182</v>
+        <v>0.05874176185343658</v>
       </c>
       <c r="H75">
         <v>100</v>
       </c>
       <c r="I75">
-        <v>85.90000000000001</v>
+        <v>82.52</v>
       </c>
       <c r="J75">
-        <v>7.21808910369873</v>
+        <v>7.277636528015137</v>
       </c>
       <c r="K75">
-        <v>-0.1749648451805115</v>
+        <v>0.1023128852481023</v>
       </c>
       <c r="L75">
-        <v>-0.8048853039741516</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>-1.205851125717163</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B76">
-        <v>6056.557802322526</v>
+        <v>23351.59374618954</v>
       </c>
       <c r="C76">
-        <v>0.01585064494418988</v>
+        <v>0.0003550591353258081</v>
       </c>
       <c r="D76">
-        <v>0.1973685532808304</v>
+        <v>0.1738953500986099</v>
       </c>
       <c r="E76">
-        <v>0.09281492084264756</v>
+        <v>0.2346608221530914</v>
       </c>
       <c r="F76">
-        <v>0.4198812730181267</v>
+        <v>0.7067184033013751</v>
       </c>
       <c r="G76">
-        <v>0.05874176185343658</v>
+        <v>0.0507353622817841</v>
       </c>
       <c r="H76">
-        <v>100</v>
+        <v>97.23</v>
       </c>
       <c r="I76">
-        <v>82.52</v>
+        <v>94.56</v>
       </c>
       <c r="J76">
-        <v>7.277636528015137</v>
+        <v>10</v>
       </c>
       <c r="K76">
-        <v>0.1023128852481023</v>
+        <v>0.6974453091621399</v>
       </c>
       <c r="L76">
-        <v>-1.205851125717163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>0.9910334944725037</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77">
-        <v>23351.59374618954</v>
+        <v>27546.12013258055</v>
       </c>
       <c r="C77">
-        <v>0.0003550591353258081</v>
+        <v>-0.003572572911594096</v>
       </c>
       <c r="D77">
-        <v>0.1738953500986099</v>
+        <v>0.2227512836456299</v>
       </c>
       <c r="E77">
-        <v>0.2346608221530914</v>
+        <v>0.2052168756723404</v>
       </c>
       <c r="F77">
-        <v>0.7067184033013751</v>
+        <v>0.6538858062350468</v>
       </c>
       <c r="G77">
-        <v>0.0507353622817841</v>
+        <v>0.0107723251224584</v>
       </c>
       <c r="H77">
-        <v>97.23</v>
+        <v>100</v>
       </c>
       <c r="I77">
-        <v>94.56</v>
+        <v>100</v>
       </c>
       <c r="J77">
         <v>10</v>
       </c>
       <c r="K77">
-        <v>0.6974453091621399</v>
+        <v>1.042355918884277</v>
       </c>
       <c r="L77">
-        <v>0.9910334944725037</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>0.7579473376274108</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78">
-        <v>27546.12013258055</v>
+        <v>33428.25188766127</v>
       </c>
       <c r="C78">
-        <v>-0.003572572911594096</v>
+        <v>0.005140349013408541</v>
       </c>
       <c r="D78">
-        <v>0.2227512836456299</v>
+        <v>0.3193550646305084</v>
       </c>
       <c r="E78">
-        <v>0.2052168756723404</v>
+        <v>0.1515009224414826</v>
       </c>
       <c r="F78">
-        <v>0.6538858062350468</v>
+        <v>0.7350908288924606</v>
       </c>
       <c r="G78">
-        <v>0.0107723251224584</v>
+        <v>0.02918435782525486</v>
       </c>
       <c r="H78">
         <v>100</v>
       </c>
       <c r="I78">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J78">
+        <v>8.969557762145996</v>
+      </c>
+      <c r="K78">
+        <v>1.189412808418274</v>
+      </c>
+      <c r="L78">
+        <v>0.2785284429788589</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>18874.12058848061</v>
+      </c>
+      <c r="C79">
+        <v>-0.00851667050582019</v>
+      </c>
+      <c r="D79">
+        <v>0.2472756743431091</v>
+      </c>
+      <c r="E79">
+        <v>0.2385104089975357</v>
+      </c>
+      <c r="F79">
+        <v>0.5296641565531531</v>
+      </c>
+      <c r="G79">
+        <v>0.05367355633295454</v>
+      </c>
+      <c r="H79">
+        <v>95.25</v>
+      </c>
+      <c r="I79">
+        <v>93.13</v>
+      </c>
+      <c r="J79">
         <v>10</v>
       </c>
-      <c r="K78">
-        <v>1.042355918884277</v>
-      </c>
-      <c r="L78">
-        <v>0.7579473376274108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79">
-        <v>33428.25188766127</v>
-      </c>
-      <c r="C79">
-        <v>0.005140349013408541</v>
-      </c>
-      <c r="D79">
-        <v>0.3193550646305084</v>
-      </c>
-      <c r="E79">
-        <v>0.1515009224414826</v>
-      </c>
-      <c r="F79">
-        <v>0.7350908288924606</v>
-      </c>
-      <c r="G79">
-        <v>0.02918435782525486</v>
-      </c>
-      <c r="H79">
-        <v>100</v>
-      </c>
-      <c r="I79">
+      <c r="K79">
+        <v>-0.2013756394386292</v>
+      </c>
+      <c r="L79">
+        <v>0.1540603645145893</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80">
+        <v>22884.19891896011</v>
+      </c>
+      <c r="C80">
+        <v>0.0004227366015517653</v>
+      </c>
+      <c r="D80">
+        <v>0.1541712254285812</v>
+      </c>
+      <c r="E80">
+        <v>0.2329083889722824</v>
+      </c>
+      <c r="F80">
+        <v>0.853980716008144</v>
+      </c>
+      <c r="G80">
+        <v>0.06190077450513263</v>
+      </c>
+      <c r="H80">
+        <v>98.44</v>
+      </c>
+      <c r="I80">
+        <v>84.45999999999999</v>
+      </c>
+      <c r="J80">
+        <v>5.159219264984131</v>
+      </c>
+      <c r="K80">
+        <v>-0.3648436695337295</v>
+      </c>
+      <c r="L80">
+        <v>-0.8850289225578308</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81">
+        <v>2141.319186601957</v>
+      </c>
+      <c r="C81">
+        <v>0.03122622755224515</v>
+      </c>
+      <c r="D81">
+        <v>0.2539087623357773</v>
+      </c>
+      <c r="E81">
+        <v>0.143670791387558</v>
+      </c>
+      <c r="F81">
+        <v>0.5101491034004815</v>
+      </c>
+      <c r="G81">
+        <v>0.01469605907491764</v>
+      </c>
+      <c r="H81">
+        <v>78.73999999999999</v>
+      </c>
+      <c r="I81">
+        <v>30.27</v>
+      </c>
+      <c r="J81">
+        <v>6.902360916137695</v>
+      </c>
+      <c r="K81">
+        <v>-0.4729864895343781</v>
+      </c>
+      <c r="L81">
+        <v>-0.2131590366363526</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82">
+        <v>12699.48921794355</v>
+      </c>
+      <c r="C82">
+        <v>-0.005346974963210904</v>
+      </c>
+      <c r="D82">
+        <v>0.1588437974452973</v>
+      </c>
+      <c r="E82">
+        <v>0.2806340098381043</v>
+      </c>
+      <c r="F82">
+        <v>0.5475179221818042</v>
+      </c>
+      <c r="G82">
+        <v>0.02842907876522456</v>
+      </c>
+      <c r="H82">
+        <v>95.5</v>
+      </c>
+      <c r="I82">
+        <v>89.81</v>
+      </c>
+      <c r="J82">
+        <v>9.762622833251953</v>
+      </c>
+      <c r="K82">
+        <v>-0.04696067795157433</v>
+      </c>
+      <c r="L82">
+        <v>-0.1626901015639305</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83">
+        <v>1454.363495207124</v>
+      </c>
+      <c r="C83">
+        <v>0.02262586373629474</v>
+      </c>
+      <c r="D83">
+        <v>0.2136024981737137</v>
+      </c>
+      <c r="E83">
+        <v>0.1375782549381256</v>
+      </c>
+      <c r="F83">
+        <v>0.4764049644892158</v>
+      </c>
+      <c r="G83">
+        <v>0.04286098482956302</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+      <c r="I83">
+        <v>36.97</v>
+      </c>
+      <c r="J83">
+        <v>5.784702301025391</v>
+      </c>
+      <c r="K83">
+        <v>-1.220551586151123</v>
+      </c>
+      <c r="L83">
+        <v>-0.1927586928009987</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84">
+        <v>11951.52456801466</v>
+      </c>
+      <c r="C84">
+        <v>0.01141315873390245</v>
+      </c>
+      <c r="D84">
+        <v>0.2123283267021179</v>
+      </c>
+      <c r="E84">
+        <v>0.187924337387085</v>
+      </c>
+      <c r="F84">
+        <v>0.5725305450760798</v>
+      </c>
+      <c r="G84">
+        <v>0.01699511147302291</v>
+      </c>
+      <c r="H84">
+        <v>98.48</v>
+      </c>
+      <c r="I84">
+        <v>80.69</v>
+      </c>
+      <c r="J84">
+        <v>6.168321132659912</v>
+      </c>
+      <c r="K84">
+        <v>0.3845009982585907</v>
+      </c>
+      <c r="L84">
+        <v>-0.04469312652945519</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85">
+        <v>33143.49792457453</v>
+      </c>
+      <c r="C85">
+        <v>-0.0001448972407837035</v>
+      </c>
+      <c r="D85">
+        <v>0.266548690199852</v>
+      </c>
+      <c r="E85">
+        <v>0.1919850319623947</v>
+      </c>
+      <c r="F85">
+        <v>0.7415160732385564</v>
+      </c>
+      <c r="G85">
+        <v>-0.001749740674924349</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85">
+        <v>100</v>
+      </c>
+      <c r="J85">
+        <v>10</v>
+      </c>
+      <c r="K85">
+        <v>1.091388881206512</v>
+      </c>
+      <c r="L85">
+        <v>-0.01426322963088751</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J79">
-        <v>8.969557762145996</v>
-      </c>
-      <c r="K79">
-        <v>1.189412808418274</v>
-      </c>
-      <c r="L79">
-        <v>0.2785284429788589</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80">
-        <v>18874.12058848061</v>
-      </c>
-      <c r="C80">
-        <v>-0.00851667050582019</v>
-      </c>
-      <c r="D80">
-        <v>0.2472756743431091</v>
-      </c>
-      <c r="E80">
-        <v>0.2385104089975357</v>
-      </c>
-      <c r="F80">
-        <v>0.5296641565531531</v>
-      </c>
-      <c r="G80">
-        <v>0.05367355633295454</v>
-      </c>
-      <c r="H80">
-        <v>95.25</v>
-      </c>
-      <c r="I80">
-        <v>93.13</v>
-      </c>
-      <c r="J80">
-        <v>10</v>
-      </c>
-      <c r="K80">
-        <v>-0.2013756394386292</v>
-      </c>
-      <c r="L80">
-        <v>0.1540603645145893</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81">
-        <v>22884.19891896011</v>
-      </c>
-      <c r="C81">
-        <v>0.0004227366015517653</v>
-      </c>
-      <c r="D81">
-        <v>0.1541712254285812</v>
-      </c>
-      <c r="E81">
-        <v>0.2329083889722824</v>
-      </c>
-      <c r="F81">
-        <v>0.853980716008144</v>
-      </c>
-      <c r="G81">
-        <v>0.06190077450513263</v>
-      </c>
-      <c r="H81">
-        <v>98.44</v>
-      </c>
-      <c r="I81">
-        <v>84.45999999999999</v>
-      </c>
-      <c r="J81">
-        <v>5.159219264984131</v>
-      </c>
-      <c r="K81">
-        <v>-0.3648436695337295</v>
-      </c>
-      <c r="L81">
-        <v>-0.8850289225578308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82">
-        <v>2141.319186601957</v>
-      </c>
-      <c r="C82">
-        <v>0.03122622755224515</v>
-      </c>
-      <c r="D82">
-        <v>0.2539087623357773</v>
-      </c>
-      <c r="E82">
-        <v>0.143670791387558</v>
-      </c>
-      <c r="F82">
-        <v>0.5101491034004815</v>
-      </c>
-      <c r="G82">
-        <v>0.01469605907491764</v>
-      </c>
-      <c r="H82">
-        <v>78.73999999999999</v>
-      </c>
-      <c r="I82">
-        <v>30.27</v>
-      </c>
-      <c r="J82">
-        <v>6.902360916137695</v>
-      </c>
-      <c r="K82">
-        <v>-0.4729864895343781</v>
-      </c>
-      <c r="L82">
-        <v>-0.2131590366363526</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1" t="s">
+      <c r="B86">
+        <v>8926.550216758875</v>
+      </c>
+      <c r="C86">
+        <v>0.005323117230081742</v>
+      </c>
+      <c r="D86">
+        <v>0.223902353644371</v>
+      </c>
+      <c r="E86">
+        <v>0.1976641058921814</v>
+      </c>
+      <c r="F86">
+        <v>0.4211440715524842</v>
+      </c>
+      <c r="G86">
+        <v>0.08204854571949496</v>
+      </c>
+      <c r="H86">
+        <v>98.28</v>
+      </c>
+      <c r="I86">
+        <v>96.36</v>
+      </c>
+      <c r="J86">
+        <v>7.92165470123291</v>
+      </c>
+      <c r="K86">
+        <v>-0.1259913183748722</v>
+      </c>
+      <c r="L86">
+        <v>-0.6656313955783844</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87">
+        <v>3618.854383675815</v>
+      </c>
+      <c r="C87">
+        <v>0.02291430553559754</v>
+      </c>
+      <c r="D87">
+        <v>0.1638665199279785</v>
+      </c>
+      <c r="E87">
+        <v>0.1754059225320816</v>
+      </c>
+      <c r="F87">
+        <v>0.5159109233804797</v>
+      </c>
+      <c r="G87">
+        <v>0.04930879442647538</v>
+      </c>
+      <c r="H87">
+        <v>60.43</v>
+      </c>
+      <c r="I87">
+        <v>37.52</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>-1.431516599655151</v>
+      </c>
+      <c r="L87">
+        <v>-2.400970506668091</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88">
+        <v>7995.700159783073</v>
+      </c>
+      <c r="C88">
+        <v>0.01578388516745455</v>
+      </c>
+      <c r="D88">
+        <v>0.1705873340368271</v>
+      </c>
+      <c r="E88">
+        <v>0.1458276122808456</v>
+      </c>
+      <c r="F88">
+        <v>0.4831516126135531</v>
+      </c>
+      <c r="G88">
+        <v>0.009577840648311575</v>
+      </c>
+      <c r="H88">
+        <v>98.45999999999999</v>
+      </c>
+      <c r="I88">
+        <v>51.85</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>-0.5530168831348419</v>
+      </c>
+      <c r="L88">
+        <v>-0.3791943490505219</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89">
+        <v>43622.21817451052</v>
+      </c>
+      <c r="C89">
+        <v>0.008450958869778712</v>
+      </c>
+      <c r="D89">
+        <v>0.2667262554168701</v>
+      </c>
+      <c r="E89">
+        <v>0.2263106942176819</v>
+      </c>
+      <c r="F89">
+        <v>1.18858458588277</v>
+      </c>
+      <c r="G89">
+        <v>0.02066828149389419</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89">
         <v>93</v>
       </c>
-      <c r="B83">
-        <v>12699.48921794355</v>
-      </c>
-      <c r="C83">
-        <v>-0.005346974963210904</v>
-      </c>
-      <c r="D83">
-        <v>0.1588437974452973</v>
-      </c>
-      <c r="E83">
-        <v>0.2806340098381043</v>
-      </c>
-      <c r="F83">
-        <v>0.5475179221818042</v>
-      </c>
-      <c r="G83">
-        <v>0.02842907876522456</v>
-      </c>
-      <c r="H83">
-        <v>95.5</v>
-      </c>
-      <c r="I83">
-        <v>89.81</v>
-      </c>
-      <c r="J83">
-        <v>9.762622833251953</v>
-      </c>
-      <c r="K83">
-        <v>-0.04696067795157433</v>
-      </c>
-      <c r="L83">
-        <v>-0.1626901015639305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84">
-        <v>1454.363495207124</v>
-      </c>
-      <c r="C84">
-        <v>0.02262586373629474</v>
-      </c>
-      <c r="D84">
-        <v>0.2136024981737137</v>
-      </c>
-      <c r="E84">
-        <v>0.1375782549381256</v>
-      </c>
-      <c r="F84">
-        <v>0.4764049644892158</v>
-      </c>
-      <c r="G84">
-        <v>0.04286098482956302</v>
-      </c>
-      <c r="H84">
-        <v>100</v>
-      </c>
-      <c r="I84">
-        <v>36.97</v>
-      </c>
-      <c r="J84">
-        <v>5.784702301025391</v>
-      </c>
-      <c r="K84">
-        <v>-1.220551586151123</v>
-      </c>
-      <c r="L84">
-        <v>-0.1927586928009987</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B85">
-        <v>11951.52456801466</v>
-      </c>
-      <c r="C85">
-        <v>0.01141315873390245</v>
-      </c>
-      <c r="D85">
-        <v>0.2123283267021179</v>
-      </c>
-      <c r="E85">
-        <v>0.187924337387085</v>
-      </c>
-      <c r="F85">
-        <v>0.5725305450760798</v>
-      </c>
-      <c r="G85">
-        <v>0.01699511147302291</v>
-      </c>
-      <c r="H85">
-        <v>98.48</v>
-      </c>
-      <c r="I85">
-        <v>80.69</v>
-      </c>
-      <c r="J85">
-        <v>6.168321132659912</v>
-      </c>
-      <c r="K85">
-        <v>0.3845009982585907</v>
-      </c>
-      <c r="L85">
-        <v>-0.04469312652945519</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86">
-        <v>33143.49792457453</v>
-      </c>
-      <c r="C86">
-        <v>-0.0001448972407837035</v>
-      </c>
-      <c r="D86">
-        <v>0.266548690199852</v>
-      </c>
-      <c r="E86">
-        <v>0.1919850319623947</v>
-      </c>
-      <c r="F86">
-        <v>0.7415160732385564</v>
-      </c>
-      <c r="G86">
-        <v>-0.001749740674924349</v>
-      </c>
-      <c r="H86">
-        <v>100</v>
-      </c>
-      <c r="I86">
-        <v>100</v>
-      </c>
-      <c r="J86">
-        <v>10</v>
-      </c>
-      <c r="K86">
-        <v>1.091388881206512</v>
-      </c>
-      <c r="L86">
-        <v>-0.01426322963088751</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B87">
-        <v>8926.550216758875</v>
-      </c>
-      <c r="C87">
-        <v>0.005323117230081742</v>
-      </c>
-      <c r="D87">
-        <v>0.223902353644371</v>
-      </c>
-      <c r="E87">
-        <v>0.1976641058921814</v>
-      </c>
-      <c r="F87">
-        <v>0.4211440715524842</v>
-      </c>
-      <c r="G87">
-        <v>0.08204854571949496</v>
-      </c>
-      <c r="H87">
-        <v>98.28</v>
-      </c>
-      <c r="I87">
-        <v>96.36</v>
-      </c>
-      <c r="J87">
-        <v>7.92165470123291</v>
-      </c>
-      <c r="K87">
-        <v>-0.1259913183748722</v>
-      </c>
-      <c r="L87">
-        <v>-0.6656313955783844</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B88">
-        <v>3618.854383675815</v>
-      </c>
-      <c r="C88">
-        <v>0.02291430553559754</v>
-      </c>
-      <c r="D88">
-        <v>0.1638665199279785</v>
-      </c>
-      <c r="E88">
-        <v>0.1754059225320816</v>
-      </c>
-      <c r="F88">
-        <v>0.5159109233804797</v>
-      </c>
-      <c r="G88">
-        <v>0.04930879442647538</v>
-      </c>
-      <c r="H88">
-        <v>60.43</v>
-      </c>
-      <c r="I88">
-        <v>37.52</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>-1.431516599655151</v>
-      </c>
-      <c r="L88">
-        <v>-2.400970506668091</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="1" t="s">
+      <c r="J89">
+        <v>9.887359619140625</v>
+      </c>
+      <c r="K89">
+        <v>1.927840375900268</v>
+      </c>
+      <c r="L89">
+        <v>1.137729716300964</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90">
+        <v>56251.24256688447</v>
+      </c>
+      <c r="C90">
+        <v>0.01196434850058265</v>
+      </c>
+      <c r="D90">
+        <v>0.2809433221817016</v>
+      </c>
+      <c r="E90">
+        <v>0.0749329835176468</v>
+      </c>
+      <c r="F90">
+        <v>1.207432313482206</v>
+      </c>
+      <c r="G90">
+        <v>0.0252660970530318</v>
+      </c>
+      <c r="H90">
+        <v>100</v>
+      </c>
+      <c r="I90">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="J90">
+        <v>9.275995254516602</v>
+      </c>
+      <c r="K90">
+        <v>1.914527869224548</v>
+      </c>
+      <c r="L90">
+        <v>1.356213045120239</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>4863.120420861278</v>
+      </c>
+      <c r="C91">
+        <v>-0.01798208550122158</v>
+      </c>
+      <c r="D91">
+        <v>0.1005357518792152</v>
+      </c>
+      <c r="E91">
+        <v>0.3599689722061157</v>
+      </c>
+      <c r="F91">
+        <v>1.23199352539267</v>
+      </c>
+      <c r="G91">
+        <v>-0.03742472899336671</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+      <c r="I91">
+        <v>66.95999999999999</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>-1.011875748634338</v>
+      </c>
+      <c r="L91">
+        <v>-2.186027479171753</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92">
+        <v>41621.50690056361</v>
+      </c>
+      <c r="C92">
+        <v>0.003062973301433258</v>
+      </c>
+      <c r="D92">
+        <v>0.2399397134780884</v>
+      </c>
+      <c r="E92">
+        <v>0.1494877904653549</v>
+      </c>
+      <c r="F92">
+        <v>0.5182033193520501</v>
+      </c>
+      <c r="G92">
+        <v>0.0383714414708007</v>
+      </c>
+      <c r="H92">
+        <v>99.02</v>
+      </c>
+      <c r="I92">
+        <v>95.61</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1.211282730102539</v>
+      </c>
+      <c r="L92">
+        <v>0.8668633699417114</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93">
+        <v>13861.05577877185</v>
+      </c>
+      <c r="C93">
+        <v>0.003515139721806904</v>
+      </c>
+      <c r="D93">
+        <v>0.2536680996417999</v>
+      </c>
+      <c r="E93">
+        <v>0.1741556376218796</v>
+      </c>
+      <c r="F93">
+        <v>0.4407488495579896</v>
+      </c>
+      <c r="G93">
+        <v>0.03537331325527635</v>
+      </c>
+      <c r="H93">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="I93">
+        <v>74.87</v>
+      </c>
+      <c r="J93">
+        <v>8.401812553405762</v>
+      </c>
+      <c r="K93">
+        <v>0.2408493876457214</v>
+      </c>
+      <c r="L93">
+        <v>-1.202204358577728</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94">
+        <v>1269.313938389512</v>
+      </c>
+      <c r="C94">
+        <v>0.02726440719133136</v>
+      </c>
+      <c r="D94">
+        <v>0.1648693531751633</v>
+      </c>
+      <c r="E94">
+        <v>0.1716029465198517</v>
+      </c>
+      <c r="F94">
+        <v>0.5794469057498921</v>
+      </c>
+      <c r="G94">
+        <v>0.03251490767232752</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>42.43</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>-1.322878694534302</v>
+      </c>
+      <c r="L94">
+        <v>-0.2498484700918198</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95">
+        <v>29726.86638454752</v>
+      </c>
+      <c r="C95">
+        <v>0.004923804675433141</v>
+      </c>
+      <c r="D95">
+        <v>0.1494912087917328</v>
+      </c>
+      <c r="E95">
+        <v>0.1628034442663193</v>
+      </c>
+      <c r="F95">
+        <v>0.5873934103789968</v>
+      </c>
+      <c r="G95">
+        <v>0.05722241285438976</v>
+      </c>
+      <c r="H95">
+        <v>99.3</v>
+      </c>
+      <c r="I95">
+        <v>88.51000000000001</v>
+      </c>
+      <c r="J95">
+        <v>7.04825496673584</v>
+      </c>
+      <c r="K95">
+        <v>0.3272336661815644</v>
+      </c>
+      <c r="L95">
+        <v>0.1072170525789261</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96">
+        <v>10323.21814180917</v>
+      </c>
+      <c r="C96">
+        <v>0.01129721476054471</v>
+      </c>
+      <c r="D96">
+        <v>0.2275355011224747</v>
+      </c>
+      <c r="E96">
+        <v>0.2285589724779129</v>
+      </c>
+      <c r="F96">
+        <v>0.4044785876339752</v>
+      </c>
+      <c r="G96">
+        <v>0.004388334547514861</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>76.09</v>
+      </c>
+      <c r="J96">
+        <v>7.100636959075928</v>
+      </c>
+      <c r="K96">
+        <v>0.002692305296659469</v>
+      </c>
+      <c r="L96">
+        <v>-0.578651973605156</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97">
+        <v>18029.3301222813</v>
+      </c>
+      <c r="C97">
+        <v>0.01698979138563783</v>
+      </c>
+      <c r="D97">
+        <v>0.2137131184339523</v>
+      </c>
+      <c r="E97">
+        <v>0.2059744656085968</v>
+      </c>
+      <c r="F97">
+        <v>0.5594531459134601</v>
+      </c>
+      <c r="G97">
+        <v>0.05257130097489671</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>82.14</v>
+      </c>
+      <c r="J97">
+        <v>7.7349853515625</v>
+      </c>
+      <c r="K97">
+        <v>0.3597182393074035</v>
+      </c>
+      <c r="L97">
+        <v>-1.086356604099274</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98">
+        <v>50773.26807444192</v>
+      </c>
+      <c r="C98">
+        <v>0.007829294431749201</v>
+      </c>
+      <c r="D98">
+        <v>0.2048684149980545</v>
+      </c>
+      <c r="E98">
+        <v>0.1210196420550346</v>
+      </c>
+      <c r="F98">
+        <v>0.9509728390736528</v>
+      </c>
+      <c r="G98">
+        <v>0.01376382015753985</v>
+      </c>
+      <c r="H98">
         <v>99</v>
       </c>
-      <c r="B89">
-        <v>7995.700159783073</v>
-      </c>
-      <c r="C89">
-        <v>0.01578388516745455</v>
-      </c>
-      <c r="D89">
-        <v>0.1705873340368271</v>
-      </c>
-      <c r="E89">
-        <v>0.1458276122808456</v>
-      </c>
-      <c r="F89">
-        <v>0.4831516126135531</v>
-      </c>
-      <c r="G89">
-        <v>0.009577840648311575</v>
-      </c>
-      <c r="H89">
-        <v>98.45999999999999</v>
-      </c>
-      <c r="I89">
-        <v>51.85</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>-0.5530168831348419</v>
-      </c>
-      <c r="L89">
-        <v>-0.3791943490505219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90">
-        <v>43622.21817451052</v>
-      </c>
-      <c r="C90">
-        <v>0.008450958869778712</v>
-      </c>
-      <c r="D90">
-        <v>0.2667262554168701</v>
-      </c>
-      <c r="E90">
-        <v>0.2263106942176819</v>
-      </c>
-      <c r="F90">
-        <v>1.18858458588277</v>
-      </c>
-      <c r="G90">
-        <v>0.02066828149389419</v>
-      </c>
-      <c r="H90">
-        <v>100</v>
-      </c>
-      <c r="I90">
-        <v>93</v>
-      </c>
-      <c r="J90">
-        <v>9.887359619140625</v>
-      </c>
-      <c r="K90">
-        <v>1.927840375900268</v>
-      </c>
-      <c r="L90">
-        <v>1.137729716300964</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91">
-        <v>56251.24256688447</v>
-      </c>
-      <c r="C91">
-        <v>0.01196434850058265</v>
-      </c>
-      <c r="D91">
-        <v>0.2809433221817016</v>
-      </c>
-      <c r="E91">
-        <v>0.0749329835176468</v>
-      </c>
-      <c r="F91">
-        <v>1.207432313482206</v>
-      </c>
-      <c r="G91">
-        <v>0.0252660970530318</v>
-      </c>
-      <c r="H91">
-        <v>100</v>
-      </c>
-      <c r="I91">
-        <v>93.70999999999999</v>
-      </c>
-      <c r="J91">
-        <v>9.275995254516602</v>
-      </c>
-      <c r="K91">
-        <v>1.914527869224548</v>
-      </c>
-      <c r="L91">
-        <v>1.356213045120239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B92">
-        <v>4863.120420861278</v>
-      </c>
-      <c r="C92">
-        <v>-0.01798208550122158</v>
-      </c>
-      <c r="D92">
-        <v>0.1005357518792152</v>
-      </c>
-      <c r="E92">
-        <v>0.3599689722061157</v>
-      </c>
-      <c r="F92">
-        <v>1.23199352539267</v>
-      </c>
-      <c r="G92">
-        <v>-0.03742472899336671</v>
-      </c>
-      <c r="H92">
-        <v>100</v>
-      </c>
-      <c r="I92">
-        <v>66.95999999999999</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>-1.011875748634338</v>
-      </c>
-      <c r="L92">
-        <v>-2.186027479171753</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B93">
-        <v>41621.50690056361</v>
-      </c>
-      <c r="C93">
-        <v>0.003062973301433258</v>
-      </c>
-      <c r="D93">
-        <v>0.2399397134780884</v>
-      </c>
-      <c r="E93">
-        <v>0.1494877904653549</v>
-      </c>
-      <c r="F93">
-        <v>0.5182033193520501</v>
-      </c>
-      <c r="G93">
-        <v>0.0383714414708007</v>
-      </c>
-      <c r="H93">
-        <v>99.02</v>
-      </c>
-      <c r="I93">
-        <v>95.61</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>1.211282730102539</v>
-      </c>
-      <c r="L93">
-        <v>0.8668633699417114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94">
-        <v>13861.05577877185</v>
-      </c>
-      <c r="C94">
-        <v>0.003515139721806904</v>
-      </c>
-      <c r="D94">
-        <v>0.2536680996417999</v>
-      </c>
-      <c r="E94">
-        <v>0.1741556376218796</v>
-      </c>
-      <c r="F94">
-        <v>0.4407488495579896</v>
-      </c>
-      <c r="G94">
-        <v>0.03537331325527635</v>
-      </c>
-      <c r="H94">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="I94">
-        <v>74.87</v>
-      </c>
-      <c r="J94">
-        <v>8.401812553405762</v>
-      </c>
-      <c r="K94">
-        <v>0.2408493876457214</v>
-      </c>
-      <c r="L94">
-        <v>-1.202204358577728</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95">
-        <v>1269.313938389512</v>
-      </c>
-      <c r="C95">
-        <v>0.02726440719133136</v>
-      </c>
-      <c r="D95">
-        <v>0.1648693531751633</v>
-      </c>
-      <c r="E95">
-        <v>0.1716029465198517</v>
-      </c>
-      <c r="F95">
-        <v>0.5794469057498921</v>
-      </c>
-      <c r="G95">
-        <v>0.03251490767232752</v>
-      </c>
-      <c r="H95">
-        <v>100</v>
-      </c>
-      <c r="I95">
-        <v>42.43</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>-1.322878694534302</v>
-      </c>
-      <c r="L95">
-        <v>-0.2498484700918198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96">
-        <v>29726.86638454752</v>
-      </c>
-      <c r="C96">
-        <v>0.004923804675433141</v>
-      </c>
-      <c r="D96">
-        <v>0.1494912087917328</v>
-      </c>
-      <c r="E96">
-        <v>0.1628034442663193</v>
-      </c>
-      <c r="F96">
-        <v>0.5873934103789968</v>
-      </c>
-      <c r="G96">
-        <v>0.05722241285438976</v>
-      </c>
-      <c r="H96">
-        <v>99.3</v>
-      </c>
-      <c r="I96">
-        <v>88.51000000000001</v>
-      </c>
-      <c r="J96">
-        <v>7.04825496673584</v>
-      </c>
-      <c r="K96">
-        <v>0.3272336661815644</v>
-      </c>
-      <c r="L96">
-        <v>0.1072170525789261</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B97">
-        <v>10323.21814180917</v>
-      </c>
-      <c r="C97">
-        <v>0.01129721476054471</v>
-      </c>
-      <c r="D97">
-        <v>0.2275355011224747</v>
-      </c>
-      <c r="E97">
-        <v>0.2285589724779129</v>
-      </c>
-      <c r="F97">
-        <v>0.4044785876339752</v>
-      </c>
-      <c r="G97">
-        <v>0.004388334547514861</v>
-      </c>
-      <c r="H97">
-        <v>100</v>
-      </c>
-      <c r="I97">
-        <v>76.09</v>
-      </c>
-      <c r="J97">
-        <v>7.100636959075928</v>
-      </c>
-      <c r="K97">
-        <v>0.002692305296659469</v>
-      </c>
-      <c r="L97">
-        <v>-0.578651973605156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B98">
-        <v>18029.3301222813</v>
-      </c>
-      <c r="C98">
-        <v>0.01698979138563783</v>
-      </c>
-      <c r="D98">
-        <v>0.2137131184339523</v>
-      </c>
-      <c r="E98">
-        <v>0.2059744656085968</v>
-      </c>
-      <c r="F98">
-        <v>0.5594531459134601</v>
-      </c>
-      <c r="G98">
-        <v>0.05257130097489671</v>
-      </c>
-      <c r="H98">
-        <v>100</v>
-      </c>
       <c r="I98">
-        <v>82.14</v>
+        <v>87</v>
       </c>
       <c r="J98">
-        <v>7.7349853515625</v>
+        <v>9.351873397827148</v>
       </c>
       <c r="K98">
-        <v>0.3597182393074035</v>
+        <v>1.519548320770264</v>
       </c>
       <c r="L98">
-        <v>-1.086356604099274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>0.5775171101093293</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B99">
-        <v>50773.26807444192</v>
+        <v>1777.299085945269</v>
       </c>
       <c r="C99">
-        <v>0.007829294431749201</v>
+        <v>0.0333494888021872</v>
       </c>
       <c r="D99">
-        <v>0.2048684149980545</v>
+        <v>0.2540256202220917</v>
       </c>
       <c r="E99">
-        <v>0.1210196420550346</v>
+        <v>0.09057950079441071</v>
       </c>
       <c r="F99">
-        <v>0.9509728390736528</v>
+        <v>0.3859807313965566</v>
       </c>
       <c r="G99">
-        <v>0.01376382015753985</v>
+        <v>0.02610507319189601</v>
       </c>
       <c r="H99">
+        <v>100</v>
+      </c>
+      <c r="I99">
+        <v>27.35</v>
+      </c>
+      <c r="J99">
+        <v>6.75208044052124</v>
+      </c>
+      <c r="K99">
+        <v>-0.5396147251129151</v>
+      </c>
+      <c r="L99">
+        <v>-0.9250886797904968</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100">
+        <v>37980.33980885002</v>
+      </c>
+      <c r="C100">
+        <v>0.006692963599740543</v>
+      </c>
+      <c r="D100">
+        <v>0.2215494275093079</v>
+      </c>
+      <c r="E100">
+        <v>0.1990758329629898</v>
+      </c>
+      <c r="F100">
+        <v>0.8658326194457032</v>
+      </c>
+      <c r="G100">
+        <v>0.01530139450593411</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+      <c r="I100">
         <v>99</v>
       </c>
-      <c r="I99">
-        <v>87</v>
-      </c>
-      <c r="J99">
-        <v>9.351873397827148</v>
-      </c>
-      <c r="K99">
-        <v>1.519548320770264</v>
-      </c>
-      <c r="L99">
-        <v>0.5775171101093293</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100">
-        <v>1777.299085945269</v>
-      </c>
-      <c r="C100">
-        <v>0.0333494888021872</v>
-      </c>
-      <c r="D100">
-        <v>0.2540256202220917</v>
-      </c>
-      <c r="E100">
-        <v>0.09057950079441071</v>
-      </c>
-      <c r="F100">
-        <v>0.3859807313965566</v>
-      </c>
-      <c r="G100">
-        <v>0.02610507319189601</v>
-      </c>
-      <c r="H100">
-        <v>100</v>
-      </c>
-      <c r="I100">
-        <v>27.35</v>
-      </c>
       <c r="J100">
-        <v>6.75208044052124</v>
+        <v>9.294214248657227</v>
       </c>
       <c r="K100">
-        <v>-0.5396147251129151</v>
+        <v>1.55940055847168</v>
       </c>
       <c r="L100">
-        <v>-0.9250886797904968</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>0.413469123840332</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B101">
-        <v>37980.33980885002</v>
+        <v>18662.37944096298</v>
       </c>
       <c r="C101">
-        <v>0.006692963599740543</v>
+        <v>0.003352942284702465</v>
       </c>
       <c r="D101">
-        <v>0.2215494275093079</v>
+        <v>0.2376921385526657</v>
       </c>
       <c r="E101">
-        <v>0.1990758329629898</v>
+        <v>0.1266034007072449</v>
       </c>
       <c r="F101">
-        <v>0.8658326194457032</v>
+        <v>0.7550088237201753</v>
       </c>
       <c r="G101">
-        <v>0.01530139450593411</v>
+        <v>0.07120252666156648</v>
       </c>
       <c r="H101">
         <v>100</v>
       </c>
       <c r="I101">
-        <v>99</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="J101">
-        <v>9.294214248657227</v>
+        <v>6.363477230072021</v>
       </c>
       <c r="K101">
-        <v>1.55940055847168</v>
+        <v>0.5106136858463287</v>
       </c>
       <c r="L101">
-        <v>0.413469123840332</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>0.8575737118721009</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B102">
-        <v>18662.37944096298</v>
+        <v>15665.3733678118</v>
       </c>
       <c r="C102">
-        <v>0.003352942284702465</v>
+        <v>0.01452525976228864</v>
       </c>
       <c r="D102">
-        <v>0.2376921385526657</v>
+        <v>0.2324700117111206</v>
       </c>
       <c r="E102">
-        <v>0.1266034007072449</v>
+        <v>0.1440561190247536</v>
       </c>
       <c r="F102">
-        <v>0.7550088237201753</v>
+        <v>0.8589390284636576</v>
       </c>
       <c r="G102">
-        <v>0.07120252666156648</v>
+        <v>0.0270358106341285</v>
       </c>
       <c r="H102">
-        <v>100</v>
+        <v>99.19</v>
       </c>
       <c r="I102">
-        <v>77.09999999999999</v>
+        <v>77.70999999999999</v>
       </c>
       <c r="J102">
-        <v>6.363477230072021</v>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>0.5106136858463287</v>
+        <v>-1.168395614624024</v>
       </c>
       <c r="L102">
-        <v>0.8575737118721009</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>-1.061409986019135</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B103">
-        <v>15665.3733678118</v>
+        <v>3632.233134813854</v>
       </c>
       <c r="C103">
-        <v>0.01452525976228864</v>
+        <v>0.02667675369089149</v>
       </c>
       <c r="D103">
-        <v>0.2324700117111206</v>
+        <v>0.1364605247974396</v>
       </c>
       <c r="E103">
-        <v>0.1440561190247536</v>
+        <v>0.2014688551425934</v>
       </c>
       <c r="F103">
-        <v>0.8589390284636576</v>
+        <v>0.386538629560743</v>
       </c>
       <c r="G103">
-        <v>0.0270358106341285</v>
+        <v>-0.009991921380473912</v>
       </c>
       <c r="H103">
-        <v>99.19</v>
+        <v>86</v>
       </c>
       <c r="I103">
-        <v>77.70999999999999</v>
+        <v>40.79</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>-1.168395614624024</v>
+        <v>-1.213837337493896</v>
       </c>
       <c r="L103">
-        <v>-1.061409986019135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>-2.464315795898437</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B104">
-        <v>3632.233134813854</v>
+        <v>3471.288436166372</v>
       </c>
       <c r="C104">
-        <v>0.02667675369089149</v>
+        <v>0.03081495097487559</v>
       </c>
       <c r="D104">
-        <v>0.1364605247974396</v>
+        <v>0.3721329867839813</v>
       </c>
       <c r="E104">
-        <v>0.2014688551425934</v>
+        <v>0.107934507727623</v>
       </c>
       <c r="F104">
-        <v>0.386538629560743</v>
+        <v>0.4750216102540049</v>
       </c>
       <c r="G104">
-        <v>-0.009991921380473912</v>
+        <v>0.06413525482100009</v>
       </c>
       <c r="H104">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I104">
-        <v>40.79</v>
+        <v>95.42</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>6.23131275177002</v>
       </c>
       <c r="K104">
-        <v>-1.213837337493896</v>
+        <v>-0.5957200348377227</v>
       </c>
       <c r="L104">
-        <v>-2.464315795898437</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>0.4556465953588485</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B105">
-        <v>3471.288436166372</v>
+        <v>1648.272033151722</v>
       </c>
       <c r="C105">
-        <v>0.03081495097487559</v>
+        <v>0.02130133640280141</v>
       </c>
       <c r="D105">
-        <v>0.3721329867839813</v>
+        <v>0.1373400449752808</v>
       </c>
       <c r="E105">
-        <v>0.107934507727623</v>
+        <v>0.1822831183671951</v>
       </c>
       <c r="F105">
-        <v>0.4750216102540049</v>
+        <v>0.7276623108162108</v>
       </c>
       <c r="G105">
-        <v>0.06413525482100009</v>
+        <v>0.04428085657535419</v>
       </c>
       <c r="H105">
-        <v>100</v>
+        <v>98.27</v>
       </c>
       <c r="I105">
-        <v>95.42</v>
+        <v>43.41</v>
       </c>
       <c r="J105">
-        <v>6.23131275177002</v>
+        <v>8.085634231567383</v>
       </c>
       <c r="K105">
-        <v>-0.5957200348377227</v>
+        <v>-1.341589760780334</v>
       </c>
       <c r="L105">
-        <v>0.4556465953588485</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106">
-        <v>1648.272033151722</v>
-      </c>
-      <c r="C106">
-        <v>0.02130133640280141</v>
-      </c>
-      <c r="D106">
-        <v>0.1373400449752808</v>
-      </c>
-      <c r="E106">
-        <v>0.1822831183671951</v>
-      </c>
-      <c r="F106">
-        <v>0.7276623108162108</v>
-      </c>
-      <c r="G106">
-        <v>0.04428085657535419</v>
-      </c>
-      <c r="H106">
-        <v>98.27</v>
-      </c>
-      <c r="I106">
-        <v>43.41</v>
-      </c>
-      <c r="J106">
-        <v>8.085634231567383</v>
-      </c>
-      <c r="K106">
-        <v>-1.341589760780334</v>
-      </c>
-      <c r="L106">
         <v>-0.8415048837661743</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
